--- a/data/data_from_Wenqi/NDVI_SOS.xlsx
+++ b/data/data_from_Wenqi/NDVI_SOS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{387885CF-8F1E-4BC7-ADDB-93CFC5FCC3B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F843EC1A-763F-4CFD-8A2F-1E1A394AF0DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MODIS" sheetId="1" r:id="rId1"/>
@@ -2081,17 +2081,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2130,7 +2130,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2410,16 +2410,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>495</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0.43609999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0.52480000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0.39539999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0.4531</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0.64670000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>0.68469999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0.68179999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0.61990000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>0.81789999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0.75560000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0.74870000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0.75290000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0.71619999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0.50509999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0.67630000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0.6885</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0.57379999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0.5212</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0.51060000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0.51029999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0.42980000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0.54079999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0.76459999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>0.76459999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0.80620000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0.84330000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.80230000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>0.86070000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0.1641</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0.73939999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0.69440000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0.6452</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0.58230000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0.73829999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>0.60150000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0.54920000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>0.53190000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>0.77529999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0.74890000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0.78990000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0.77790000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>0.78539999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0.84709999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>0.76539999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>0.79549999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0.7409</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>0.58960000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>0.59970000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>0.63180000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>0.53769999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>0.72750000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>0.56259999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>0.41959999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>0.57540000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0.52229999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0.51359999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>0.64129999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>0.79110000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>0.81440000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>0.82220000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>0.80179999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>0.76349999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>0.80330000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>0.80669999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>0.7994</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0.63660000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>0.65169999999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0.59530000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0.68030000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>0.64849999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>0.50770000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>0.57540000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>0.46660000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>0.66220000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>0.77459999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>0.76480000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>0.79210000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>0.82330000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>0.82320000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>0.82930000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>0.87729999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>0.89390000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>0.79849999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>0.69630000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>0.67390000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>0.64380000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>0.72640000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>0.59250000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>0.51359999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>0.72140000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>0.57709999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0.58030000000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>0.47020000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>0.51780000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0.59009999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>0.66180000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>0.80810000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>0.78669999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>0.80410000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>0.81730000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>0.84860000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>0.89129999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0.1188</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>0.7994</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>0.75780000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>0.70430000000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>0.63009999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>0.66549999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>0.69550000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>0.59009999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>0.57079999999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>0.49580000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>0.61439999999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>0.37459999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>0.45290000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>0.36649999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>0.56950000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>0.83009999999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>0.79579999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>0.82789999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>0.86470000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>0.85189999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>0.83819999999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>0.70340000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>0.65349999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>0.63380000000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>0.65069999999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0.60880000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>0.54259999999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>0.59140000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>0.62080000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>0.56640000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>0.50439999999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>0.5635</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>0.62139999999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>0.7974</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>0.82879999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>0.87050000000000005</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>0.94620000000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>0.83620000000000005</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>0.83440000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>0.72609999999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>0.61070000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>0.66349999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>0.53790000000000004</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>0.62219999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>0.53180000000000005</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>0.1285</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>0.53569999999999995</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>0.50390000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>0.52590000000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>0.39610000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>0.62870000000000004</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>0.77610000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>0.8226</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>0.78549999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>0.85309999999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0.88009999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>0.89429999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>0.86250000000000004</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>0.85140000000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>0.87929999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>0.83130000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>0.66639999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>0.63429999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>0.55640000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>0.66979999999999995</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>0.5766</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>0.5716</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>0.58409999999999995</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>0.61929999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>0.81220000000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>0.82169999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>0.81440000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>0.8306</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>0.85670000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>0.37159999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>0.84989999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>0.86919999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0.77969999999999995</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>0.73929999999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>0.73129999999999995</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>0.6341</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>0.66639999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>0.57410000000000005</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>0.67020000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -20046,7 +20046,7 @@
         <v>0.63959999999999995</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>0.55230000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>0.50360000000000005</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>0.56420000000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>0.54769999999999996</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>0.46479999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>0.55930000000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>0.58679999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>0.77510000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -20739,7 +20739,7 @@
         <v>0.83660000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>0.86719999999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>0.83069999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>0.86539999999999995</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>0.83540000000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>0.84519999999999995</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>0.6845</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>0.66779999999999995</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>0.63570000000000004</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>0.67390000000000005</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>0.60119999999999996</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>0.47439999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>0.49730000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>0.68079999999999996</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -22048,7 +22048,7 @@
         <v>0.46010000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>0.61280000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -22202,7 +22202,7 @@
         <v>0.48580000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>0.57140000000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>0.68259999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -22433,7 +22433,7 @@
         <v>0.81389999999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -22510,7 +22510,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>0.8347</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>0.85140000000000005</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -22741,7 +22741,7 @@
         <v>0.85009999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>0.86709999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -22895,7 +22895,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>0.47270000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -23126,7 +23126,7 @@
         <v>0.68979999999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>0.71150000000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -23280,7 +23280,7 @@
         <v>0.7137</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>0.65139999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>0.69359999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -23511,7 +23511,7 @@
         <v>0.67749999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>0.67749999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -23665,7 +23665,7 @@
         <v>0.54120000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -23742,7 +23742,7 @@
         <v>0.55330000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>0.47070000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -23973,7 +23973,7 @@
         <v>0.54669999999999996</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>0.62180000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -24127,7 +24127,7 @@
         <v>0.63229999999999997</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -24204,7 +24204,7 @@
         <v>0.79910000000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>0.84319999999999995</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>0.80789999999999995</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -24432,7 +24432,7 @@
         <v>0.46389999999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v>0.86629999999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>0.88649999999999995</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -24740,7 +24740,7 @@
         <v>0.84730000000000005</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -24817,7 +24817,7 @@
         <v>0.86050000000000004</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -24894,7 +24894,7 @@
         <v>0.72819999999999996</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -24971,7 +24971,7 @@
         <v>0.70009999999999994</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>0.6774</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>0.56869999999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -25202,7 +25202,7 @@
         <v>0.65459999999999996</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -25353,7 +25353,7 @@
         <v>0.54310000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>0.69110000000000005</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>0.53410000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>0.57509999999999994</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -25661,7 +25661,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>0.61140000000000005</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>0.66269999999999996</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -25892,7 +25892,7 @@
         <v>0.74970000000000003</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>0.79959999999999998</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>0.84340000000000004</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>0.84689999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>0.85409999999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>0.71919999999999995</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -26354,7 +26354,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>0.86450000000000005</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>0.85740000000000005</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -26585,7 +26585,7 @@
         <v>0.8165</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25">
       <c r="A315" t="s">
         <v>313</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>0.74639999999999995</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -26739,7 +26739,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>0.63060000000000005</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -26893,7 +26893,7 @@
         <v>0.62980000000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -26970,7 +26970,7 @@
         <v>0.7329</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -27047,7 +27047,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -27124,7 +27124,7 @@
         <v>0.67069999999999996</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -27201,7 +27201,7 @@
         <v>0.69530000000000003</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -27278,7 +27278,7 @@
         <v>0.63009999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -27355,7 +27355,7 @@
         <v>0.32179999999999997</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -27432,7 +27432,7 @@
         <v>0.67490000000000006</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -27509,7 +27509,7 @@
         <v>0.53249999999999997</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -27586,7 +27586,7 @@
         <v>0.73550000000000004</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -27663,7 +27663,7 @@
         <v>0.7762</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -27740,7 +27740,7 @@
         <v>0.76060000000000005</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -27817,7 +27817,7 @@
         <v>0.84960000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -27894,7 +27894,7 @@
         <v>0.85860000000000003</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -27971,7 +27971,7 @@
         <v>0.88539999999999996</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>0.85960000000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -28125,7 +28125,7 @@
         <v>0.86970000000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -28202,7 +28202,7 @@
         <v>0.88080000000000003</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>0.85729999999999995</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>0.84109999999999996</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -28433,7 +28433,7 @@
         <v>0.76259999999999994</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -28510,7 +28510,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>0.68410000000000004</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -28664,7 +28664,7 @@
         <v>0.66539999999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -28741,7 +28741,7 @@
         <v>0.71479999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>0.70120000000000005</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -28895,7 +28895,7 @@
         <v>0.64649999999999996</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>0.75760000000000005</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -29049,7 +29049,7 @@
         <v>0.63019999999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>0.61519999999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -29203,7 +29203,7 @@
         <v>0.57489999999999997</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>0.60450000000000004</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -29357,7 +29357,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -29434,7 +29434,7 @@
         <v>0.7762</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -29511,7 +29511,7 @@
         <v>0.81869999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -29588,7 +29588,7 @@
         <v>0.87749999999999995</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>0.85750000000000004</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -29742,7 +29742,7 @@
         <v>0.60940000000000005</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -29819,7 +29819,7 @@
         <v>0.88329999999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -29896,7 +29896,7 @@
         <v>0.85680000000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -29973,7 +29973,7 @@
         <v>0.85729999999999995</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -30050,7 +30050,7 @@
         <v>0.84960000000000002</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -30127,7 +30127,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -30204,7 +30204,7 @@
         <v>0.80989999999999995</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -30281,7 +30281,7 @@
         <v>0.61460000000000004</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -30358,7 +30358,7 @@
         <v>0.71489999999999998</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -30435,7 +30435,7 @@
         <v>0.72270000000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -30509,7 +30509,7 @@
         <v>0.73560000000000003</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -30586,7 +30586,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0.67269999999999996</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -30740,7 +30740,7 @@
         <v>0.66259999999999997</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -30817,7 +30817,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -30894,7 +30894,7 @@
         <v>0.63539999999999996</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -30971,7 +30971,7 @@
         <v>0.60419999999999996</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -31048,7 +31048,7 @@
         <v>0.59109999999999996</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -31125,7 +31125,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25">
       <c r="A374" t="s">
         <v>372</v>
       </c>
@@ -31202,7 +31202,7 @@
         <v>0.77910000000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>0.8357</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -31356,7 +31356,7 @@
         <v>0.81910000000000005</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25">
       <c r="A378" t="s">
         <v>376</v>
       </c>
@@ -31510,7 +31510,7 @@
         <v>0.8679</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -31587,7 +31587,7 @@
         <v>0.83479999999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -31664,7 +31664,7 @@
         <v>0.85609999999999997</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -31741,7 +31741,7 @@
         <v>0.55049999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -31818,7 +31818,7 @@
         <v>0.85519999999999996</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>0.82179999999999997</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -31972,7 +31972,7 @@
         <v>0.75929999999999997</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -32049,7 +32049,7 @@
         <v>0.63460000000000005</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25">
       <c r="A386" t="s">
         <v>384</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -32280,7 +32280,7 @@
         <v>0.62460000000000004</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -32357,7 +32357,7 @@
         <v>0.62409999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -32434,7 +32434,7 @@
         <v>0.61850000000000005</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -32511,7 +32511,7 @@
         <v>0.58279999999999998</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -32588,7 +32588,7 @@
         <v>0.57840000000000003</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -32665,7 +32665,7 @@
         <v>0.58509999999999995</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -32742,7 +32742,7 @@
         <v>0.25230000000000002</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -32819,7 +32819,7 @@
         <v>0.59109999999999996</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -32896,7 +32896,7 @@
         <v>0.60880000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -32973,7 +32973,7 @@
         <v>0.62219999999999998</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -33050,7 +33050,7 @@
         <v>0.81210000000000004</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -33127,7 +33127,7 @@
         <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -33204,7 +33204,7 @@
         <v>0.62329999999999997</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -33278,7 +33278,7 @@
         <v>0.83689999999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -33355,7 +33355,7 @@
         <v>0.86339999999999995</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -33432,7 +33432,7 @@
         <v>0.84930000000000005</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -33509,7 +33509,7 @@
         <v>0.75839999999999996</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -33586,7 +33586,7 @@
         <v>0.87219999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -33663,7 +33663,7 @@
         <v>0.83079999999999998</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -33740,7 +33740,7 @@
         <v>0.82640000000000002</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -33817,7 +33817,7 @@
         <v>0.70479999999999998</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -33894,7 +33894,7 @@
         <v>0.67279999999999995</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -33971,7 +33971,7 @@
         <v>0.70679999999999998</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -34048,7 +34048,7 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -34125,7 +34125,7 @@
         <v>0.69389999999999996</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -34202,7 +34202,7 @@
         <v>0.50370000000000004</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -34279,7 +34279,7 @@
         <v>0.52590000000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -34356,7 +34356,7 @@
         <v>0.58909999999999996</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -34433,7 +34433,7 @@
         <v>0.58840000000000003</v>
       </c>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -34510,7 +34510,7 @@
         <v>0.68689999999999996</v>
       </c>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -34587,7 +34587,7 @@
         <v>0.63839999999999997</v>
       </c>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -34664,7 +34664,7 @@
         <v>0.72740000000000005</v>
       </c>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -34741,7 +34741,7 @@
         <v>0.76149999999999995</v>
       </c>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -34818,7 +34818,7 @@
         <v>0.80469999999999997</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -34895,7 +34895,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -34972,7 +34972,7 @@
         <v>0.86760000000000004</v>
       </c>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -35049,7 +35049,7 @@
         <v>0.86619999999999997</v>
       </c>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -35126,7 +35126,7 @@
         <v>0.88039999999999996</v>
       </c>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -35203,7 +35203,7 @@
         <v>0.91349999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -35280,7 +35280,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -35357,7 +35357,7 @@
         <v>0.86070000000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -35434,7 +35434,7 @@
         <v>0.77049999999999996</v>
       </c>
     </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -35511,7 +35511,7 @@
         <v>0.75639999999999996</v>
       </c>
     </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -35588,7 +35588,7 @@
         <v>0.7319</v>
       </c>
     </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -35665,7 +35665,7 @@
         <v>0.75380000000000003</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -35742,7 +35742,7 @@
         <v>0.71460000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -35819,7 +35819,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25">
       <c r="A435" t="s">
         <v>433</v>
       </c>
@@ -35896,7 +35896,7 @@
         <v>0.66569999999999996</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -35973,7 +35973,7 @@
         <v>0.73319999999999996</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -36050,7 +36050,7 @@
         <v>0.73580000000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -36127,7 +36127,7 @@
         <v>0.54159999999999997</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25">
       <c r="A439" t="s">
         <v>437</v>
       </c>
@@ -36204,7 +36204,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -36281,7 +36281,7 @@
         <v>0.60540000000000005</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -36358,7 +36358,7 @@
         <v>0.57869999999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -36435,7 +36435,7 @@
         <v>0.70630000000000004</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -36512,7 +36512,7 @@
         <v>0.75680000000000003</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -36589,7 +36589,7 @@
         <v>0.81289999999999996</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25">
       <c r="A445" t="s">
         <v>443</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>0.86439999999999995</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -36743,7 +36743,7 @@
         <v>0.86409999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -36820,7 +36820,7 @@
         <v>0.86560000000000004</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25">
       <c r="A448" t="s">
         <v>446</v>
       </c>
@@ -36897,7 +36897,7 @@
         <v>0.90329999999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25">
       <c r="A449" t="s">
         <v>447</v>
       </c>
@@ -36974,7 +36974,7 @@
         <v>0.80030000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25">
       <c r="A450" t="s">
         <v>448</v>
       </c>
@@ -37051,7 +37051,7 @@
         <v>0.87250000000000005</v>
       </c>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -37128,7 +37128,7 @@
         <v>0.80279999999999996</v>
       </c>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25">
       <c r="A452" t="s">
         <v>450</v>
       </c>
@@ -37205,7 +37205,7 @@
         <v>0.57350000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25">
       <c r="A453" t="s">
         <v>451</v>
       </c>
@@ -37282,7 +37282,7 @@
         <v>0.76370000000000005</v>
       </c>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25">
       <c r="A454" t="s">
         <v>452</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v>0.75419999999999998</v>
       </c>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25">
       <c r="A455" t="s">
         <v>453</v>
       </c>
@@ -37436,7 +37436,7 @@
         <v>0.74209999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -37513,7 +37513,7 @@
         <v>0.7581</v>
       </c>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25">
       <c r="A457" t="s">
         <v>455</v>
       </c>
@@ -37590,7 +37590,7 @@
         <v>0.67449999999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25">
       <c r="A458" t="s">
         <v>456</v>
       </c>
@@ -37667,7 +37667,7 @@
         <v>0.7429</v>
       </c>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25">
       <c r="A459" t="s">
         <v>457</v>
       </c>
@@ -37744,7 +37744,7 @@
         <v>0.79090000000000005</v>
       </c>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25">
       <c r="A460" t="s">
         <v>458</v>
       </c>
@@ -37821,7 +37821,7 @@
         <v>0.70269999999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -37898,7 +37898,7 @@
         <v>0.69669999999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -37975,7 +37975,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25">
       <c r="A463" t="s">
         <v>461</v>
       </c>
@@ -38052,7 +38052,7 @@
         <v>0.72140000000000004</v>
       </c>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25">
       <c r="A464" t="s">
         <v>462</v>
       </c>
@@ -38129,7 +38129,7 @@
         <v>0.7016</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25">
       <c r="A465" t="s">
         <v>463</v>
       </c>
@@ -38206,7 +38206,7 @@
         <v>0.72260000000000002</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25">
       <c r="A466" t="s">
         <v>464</v>
       </c>
@@ -38283,7 +38283,7 @@
         <v>0.77270000000000005</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25">
       <c r="A467" t="s">
         <v>465</v>
       </c>
@@ -38360,7 +38360,7 @@
         <v>0.85950000000000004</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25">
       <c r="A468" t="s">
         <v>466</v>
       </c>
@@ -38437,7 +38437,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25">
       <c r="A469" t="s">
         <v>467</v>
       </c>
@@ -38514,7 +38514,7 @@
         <v>0.87680000000000002</v>
       </c>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25">
       <c r="A470" t="s">
         <v>468</v>
       </c>
@@ -38591,7 +38591,7 @@
         <v>0.84060000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25">
       <c r="A471" t="s">
         <v>469</v>
       </c>
@@ -38668,7 +38668,7 @@
         <v>0.78769999999999996</v>
       </c>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25">
       <c r="A472" t="s">
         <v>470</v>
       </c>
@@ -38745,7 +38745,7 @@
         <v>0.87409999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25">
       <c r="A473" t="s">
         <v>471</v>
       </c>
@@ -38822,7 +38822,7 @@
         <v>0.86519999999999997</v>
       </c>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25">
       <c r="A474" t="s">
         <v>472</v>
       </c>
@@ -38899,7 +38899,7 @@
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25">
       <c r="A475" t="s">
         <v>473</v>
       </c>
@@ -38976,7 +38976,7 @@
         <v>0.87139999999999995</v>
       </c>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25">
       <c r="A476" t="s">
         <v>474</v>
       </c>
@@ -39053,7 +39053,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25">
       <c r="A477" t="s">
         <v>475</v>
       </c>
@@ -39130,7 +39130,7 @@
         <v>0.75009999999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25">
       <c r="A478" t="s">
         <v>476</v>
       </c>
@@ -39207,7 +39207,7 @@
         <v>0.69059999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25">
       <c r="A479" t="s">
         <v>477</v>
       </c>
@@ -39284,7 +39284,7 @@
         <v>0.56830000000000003</v>
       </c>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25">
       <c r="A480" t="s">
         <v>478</v>
       </c>
@@ -39361,7 +39361,7 @@
         <v>0.64359999999999995</v>
       </c>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25">
       <c r="A481" t="s">
         <v>479</v>
       </c>
@@ -39438,7 +39438,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25">
       <c r="A482" t="s">
         <v>480</v>
       </c>
@@ -39515,7 +39515,7 @@
         <v>0.65590000000000004</v>
       </c>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -39592,7 +39592,7 @@
         <v>0.67279999999999995</v>
       </c>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25">
       <c r="A484" t="s">
         <v>482</v>
       </c>
@@ -39669,7 +39669,7 @@
         <v>0.66930000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25">
       <c r="A485" t="s">
         <v>483</v>
       </c>
@@ -39746,7 +39746,7 @@
         <v>0.72689999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -39823,7 +39823,7 @@
         <v>0.67230000000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25">
       <c r="A487" t="s">
         <v>485</v>
       </c>
@@ -39900,7 +39900,7 @@
         <v>0.63670000000000004</v>
       </c>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25">
       <c r="A488" t="s">
         <v>486</v>
       </c>
@@ -39977,7 +39977,7 @@
         <v>0.74280000000000002</v>
       </c>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25">
       <c r="A489" t="s">
         <v>487</v>
       </c>
@@ -40054,7 +40054,7 @@
         <v>0.73570000000000002</v>
       </c>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25">
       <c r="A490" t="s">
         <v>488</v>
       </c>
@@ -40131,7 +40131,7 @@
         <v>0.87319999999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25">
       <c r="A491" t="s">
         <v>489</v>
       </c>
@@ -40208,7 +40208,7 @@
         <v>0.82179999999999997</v>
       </c>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25">
       <c r="A492" t="s">
         <v>490</v>
       </c>
@@ -40285,7 +40285,7 @@
         <v>0.89810000000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25">
       <c r="A493" t="s">
         <v>491</v>
       </c>
@@ -40362,7 +40362,7 @@
         <v>0.86950000000000005</v>
       </c>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25">
       <c r="A494" t="s">
         <v>492</v>
       </c>
@@ -40439,7 +40439,7 @@
         <v>0.90359999999999996</v>
       </c>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25">
       <c r="A495" t="s">
         <v>493</v>
       </c>
@@ -40531,9 +40531,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>519</v>
@@ -40569,7 +40569,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>292</v>
       </c>
@@ -40607,7 +40607,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>293</v>
       </c>
@@ -40645,7 +40645,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>294</v>
       </c>
@@ -40683,7 +40683,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>295</v>
       </c>
@@ -40721,7 +40721,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>296</v>
       </c>
@@ -40759,7 +40759,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>297</v>
       </c>
@@ -40797,7 +40797,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>298</v>
       </c>
@@ -40835,7 +40835,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>299</v>
       </c>
@@ -40873,7 +40873,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>300</v>
       </c>
@@ -40911,7 +40911,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>301</v>
       </c>
@@ -40949,7 +40949,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>302</v>
       </c>
@@ -40987,7 +40987,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>303</v>
       </c>
@@ -41025,7 +41025,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>304</v>
       </c>
@@ -41063,7 +41063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>305</v>
       </c>
@@ -41101,7 +41101,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>306</v>
       </c>
@@ -41139,7 +41139,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>1804</v>
       </c>
@@ -41177,7 +41177,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>1805</v>
       </c>
@@ -41215,7 +41215,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>1806</v>
       </c>
@@ -41253,7 +41253,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>1807</v>
       </c>
@@ -41291,7 +41291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>1808</v>
       </c>
@@ -41329,7 +41329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>1809</v>
       </c>
@@ -41367,7 +41367,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>1810</v>
       </c>
@@ -41405,7 +41405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>1811</v>
       </c>
@@ -41443,7 +41443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>1812</v>
       </c>
@@ -41481,7 +41481,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>1813</v>
       </c>
@@ -41519,7 +41519,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>1814</v>
       </c>
@@ -41557,7 +41557,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>1815</v>
       </c>
@@ -41595,7 +41595,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>1816</v>
       </c>
@@ -41633,7 +41633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>1817</v>
       </c>
@@ -41671,7 +41671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>1818</v>
       </c>
@@ -41709,7 +41709,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>1819</v>
       </c>
@@ -41747,7 +41747,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>1820</v>
       </c>
@@ -41785,7 +41785,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>1821</v>
       </c>
@@ -41823,7 +41823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>1822</v>
       </c>
@@ -41861,7 +41861,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>1823</v>
       </c>
@@ -41899,7 +41899,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>1824</v>
       </c>
@@ -41937,7 +41937,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>1825</v>
       </c>
@@ -41975,7 +41975,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>2003</v>
       </c>
@@ -42013,7 +42013,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>2004</v>
       </c>
@@ -42051,7 +42051,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>2005</v>
       </c>
@@ -42089,7 +42089,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>2006</v>
       </c>
@@ -42127,7 +42127,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>2007</v>
       </c>
@@ -42165,7 +42165,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>2008</v>
       </c>
@@ -42203,7 +42203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>2009</v>
       </c>
@@ -42241,7 +42241,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>2010</v>
       </c>
@@ -42279,7 +42279,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>2011</v>
       </c>
@@ -42317,7 +42317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>2012</v>
       </c>
@@ -42355,7 +42355,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>2013</v>
       </c>
@@ -42393,7 +42393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>2014</v>
       </c>
@@ -42431,7 +42431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>2015</v>
       </c>
@@ -42469,7 +42469,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>2016</v>
       </c>
@@ -42507,7 +42507,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>2017</v>
       </c>
@@ -42545,7 +42545,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -42583,7 +42583,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -42621,7 +42621,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -42659,7 +42659,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>322</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>323</v>
       </c>
@@ -42735,7 +42735,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>324</v>
       </c>
@@ -42773,7 +42773,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>325</v>
       </c>
@@ -42811,7 +42811,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>326</v>
       </c>
@@ -42849,7 +42849,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>327</v>
       </c>
@@ -42887,7 +42887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>328</v>
       </c>
@@ -42925,7 +42925,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>329</v>
       </c>
@@ -42963,7 +42963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>330</v>
       </c>
@@ -43001,7 +43001,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>331</v>
       </c>
@@ -43039,7 +43039,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>332</v>
       </c>
@@ -43077,7 +43077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>333</v>
       </c>
@@ -43115,7 +43115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>334</v>
       </c>
@@ -43153,7 +43153,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>335</v>
       </c>
@@ -43191,7 +43191,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>336</v>
       </c>
@@ -43229,7 +43229,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>1617</v>
       </c>
@@ -43267,7 +43267,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>1619</v>
       </c>
@@ -43305,7 +43305,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>1620</v>
       </c>
@@ -43343,7 +43343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>1622</v>
       </c>
@@ -43381,7 +43381,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>1623</v>
       </c>
@@ -43419,7 +43419,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>1624</v>
       </c>
@@ -43457,7 +43457,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>1618</v>
       </c>
@@ -43495,7 +43495,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>1621</v>
       </c>
@@ -43533,7 +43533,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>1625</v>
       </c>
@@ -43571,7 +43571,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>1626</v>
       </c>
@@ -43609,7 +43609,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>1627</v>
       </c>
@@ -43647,7 +43647,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>1717</v>
       </c>
@@ -43685,7 +43685,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>1718</v>
       </c>
@@ -43723,7 +43723,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>1719</v>
       </c>
@@ -43761,7 +43761,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>1720</v>
       </c>
@@ -43799,7 +43799,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>1721</v>
       </c>
@@ -43837,7 +43837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>1722</v>
       </c>
@@ -43875,7 +43875,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>1670</v>
       </c>
@@ -43913,7 +43913,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>1671</v>
       </c>
@@ -43951,7 +43951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>1672</v>
       </c>
@@ -43989,7 +43989,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>1673</v>
       </c>
@@ -44027,7 +44027,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>1674</v>
       </c>
@@ -44065,7 +44065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>1675</v>
       </c>
@@ -44103,7 +44103,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>1676</v>
       </c>
@@ -44141,7 +44141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>1679</v>
       </c>
@@ -44179,7 +44179,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>1680</v>
       </c>
@@ -44217,7 +44217,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>1682</v>
       </c>
@@ -44255,7 +44255,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>1687</v>
       </c>
@@ -44293,7 +44293,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>1688</v>
       </c>
@@ -44331,7 +44331,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>1690</v>
       </c>
@@ -44369,7 +44369,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>1691</v>
       </c>
@@ -44407,7 +44407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>1693</v>
       </c>
@@ -44445,7 +44445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>1694</v>
       </c>
@@ -44483,7 +44483,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>1695</v>
       </c>
@@ -44521,7 +44521,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>1701</v>
       </c>
@@ -44559,7 +44559,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>1704</v>
       </c>
@@ -44597,7 +44597,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>1709</v>
       </c>
@@ -44635,7 +44635,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>37</v>
       </c>
@@ -44673,7 +44673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>38</v>
       </c>
@@ -44711,7 +44711,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>64</v>
       </c>
@@ -44749,7 +44749,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>66</v>
       </c>
@@ -44787,7 +44787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>103</v>
       </c>
@@ -44836,12 +44836,20 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C1" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>557</v>
       </c>
@@ -44864,7 +44872,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -44887,7 +44895,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -44910,7 +44918,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -44933,7 +44941,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -44956,7 +44964,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -44979,7 +44987,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -45002,7 +45010,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -45025,7 +45033,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -45048,7 +45056,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -45071,7 +45079,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -45094,7 +45102,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -45117,7 +45125,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -45140,7 +45148,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -45163,7 +45171,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -45186,7 +45194,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -45209,7 +45217,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -45232,7 +45240,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -45255,7 +45263,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -45278,7 +45286,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -45301,7 +45309,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -45324,7 +45332,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -45347,7 +45355,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -45370,7 +45378,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -45393,7 +45401,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -45416,7 +45424,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -45439,7 +45447,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -45462,7 +45470,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -45485,7 +45493,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
